--- a/Inputs/Orange/addons1.xlsx
+++ b/Inputs/Orange/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$30</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$B$1:$G$30</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="185">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -403,6 +404,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Pharmacy Copay)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5%</t>
   </si>
   <si>
@@ -438,6 +459,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
@@ -473,6 +497,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15%</t>
   </si>
   <si>
@@ -508,6 +535,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">20%</t>
   </si>
   <si>
@@ -543,6 +573,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
@@ -578,6 +611,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">30%</t>
   </si>
   <si>
@@ -611,6 +647,9 @@
       </rPr>
       <t xml:space="preserve"> co-pay (Optional Benefits Available)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">30% (Pharmacy Copay)</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
@@ -1024,7 +1063,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1079,7 +1119,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,10 +1156,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,6 +1165,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1148,6 +1201,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1159,7 +1216,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1813,7 +1870,7 @@
   <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1833,7 +1890,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -2292,7 +2349,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2311,7 +2368,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2545,7 +2602,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2564,7 +2621,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2723,7 +2780,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2738,13 +2795,14 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
   </cols>
   <sheetData>
@@ -2764,13 +2822,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2792,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -2807,10 +2865,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2819,8 +2877,8 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>45</v>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -2835,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2848,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -2863,10 +2921,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2876,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -2891,10 +2949,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2904,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -2919,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2932,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -2947,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2960,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -2978,7 +3036,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2988,7 +3046,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -3006,7 +3064,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3016,7 +3074,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -3034,7 +3092,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3044,7 +3102,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -3062,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3072,7 +3130,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -3090,7 +3148,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3100,7 +3158,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3118,7 +3176,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3128,7 +3186,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -3146,7 +3204,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3156,7 +3214,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -3174,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3184,7 +3242,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -3202,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3212,7 +3270,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3227,10 +3285,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3240,7 +3298,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -3255,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3268,7 +3326,7 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -3283,10 +3341,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3296,7 +3354,7 @@
         <v>-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -3311,10 +3369,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3324,7 +3382,7 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -3339,10 +3397,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3352,7 +3410,7 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -3367,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3380,7 +3438,7 @@
         <v>-1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -3395,10 +3453,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3408,7 +3466,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -3423,10 +3481,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3436,7 +3494,7 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -3451,10 +3509,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3464,7 +3522,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -3479,10 +3537,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3492,7 +3550,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -3507,10 +3565,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3520,7 +3578,7 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -3535,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3548,7 +3606,7 @@
         <v>-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -3563,10 +3621,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3576,7 +3634,7 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -3591,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3604,7 +3662,7 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -3619,10 +3677,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3632,7 +3690,7 @@
         <v>-1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -3647,10 +3705,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3660,7 +3718,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -3675,10 +3733,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3688,7 +3746,7 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -3703,10 +3761,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3716,7 +3774,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -3731,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3744,7 +3802,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
@@ -3759,10 +3817,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3772,7 +3830,7 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -3787,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3800,7 +3858,7 @@
         <v>-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
@@ -3815,10 +3873,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3828,7 +3886,7 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -3843,10 +3901,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3856,7 +3914,7 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -3871,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3884,7 +3942,7 @@
         <v>-1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -3899,10 +3957,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3912,7 +3970,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
@@ -3927,10 +3985,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3940,7 +3998,7 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -3955,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3968,7 +4026,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
@@ -3983,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3996,7 +4054,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -4011,10 +4069,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4024,7 +4082,7 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -4039,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4052,7 +4110,7 @@
         <v>-2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
@@ -4067,10 +4125,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4080,7 +4138,7 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
@@ -4095,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4108,7 +4166,7 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -4123,10 +4181,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4136,7 +4194,7 @@
         <v>-1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
@@ -4151,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4164,7 +4222,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -4179,10 +4237,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4192,7 +4250,7 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
@@ -4207,10 +4265,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4220,7 +4278,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
@@ -4235,10 +4293,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4248,7 +4306,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>11</v>
@@ -4263,10 +4321,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4276,7 +4334,7 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
@@ -4291,10 +4349,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4304,7 +4362,7 @@
         <v>-2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>11</v>
@@ -4319,10 +4377,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4332,7 +4390,7 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
@@ -4347,10 +4405,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4360,7 +4418,7 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>11</v>
@@ -4375,10 +4433,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4388,7 +4446,7 @@
         <v>-1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
@@ -4403,10 +4461,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4416,7 +4474,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>11</v>
@@ -4431,10 +4489,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4444,7 +4502,7 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
@@ -4459,10 +4517,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4472,7 +4530,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>11</v>
@@ -4487,10 +4545,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4500,7 +4558,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
@@ -4515,10 +4573,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4528,7 +4586,7 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>11</v>
@@ -4543,10 +4601,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4556,7 +4614,7 @@
         <v>-2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
@@ -4571,10 +4629,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4584,7 +4642,7 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
@@ -4599,10 +4657,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4612,7 +4670,7 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>11</v>
@@ -4627,10 +4685,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4640,7 +4698,7 @@
         <v>-1</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
@@ -4655,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4668,7 +4726,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
@@ -4683,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4696,7 +4754,7 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
@@ -4711,10 +4769,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4724,7 +4782,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
@@ -4735,13 +4793,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4752,13 +4812,13 @@
   </sheetPr>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
@@ -4788,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -4796,13 +4856,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4818,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4827,13 +4887,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4849,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4858,13 +4918,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4880,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4889,13 +4949,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4911,7 +4971,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4920,13 +4980,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4942,7 +5002,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4951,13 +5011,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4973,7 +5033,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4982,13 +5042,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5004,7 +5064,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5013,13 +5073,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5035,7 +5095,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5044,13 +5104,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5066,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5075,13 +5135,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5097,7 +5157,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5106,13 +5166,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5128,7 +5188,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5137,13 +5197,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5159,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5168,13 +5228,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5190,7 +5250,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5199,13 +5259,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5221,7 +5281,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5230,13 +5290,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5252,7 +5312,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5261,13 +5321,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5283,7 +5343,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5292,13 +5352,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5314,7 +5374,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5323,13 +5383,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5345,7 +5405,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5354,13 +5414,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5376,7 +5436,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5385,13 +5445,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5407,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5416,13 +5476,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5438,7 +5498,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5447,13 +5507,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5469,7 +5529,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5478,13 +5538,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5500,7 +5560,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5509,13 +5569,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5531,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5540,13 +5600,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5562,7 +5622,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5571,13 +5631,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5593,7 +5653,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5602,13 +5662,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5624,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5633,13 +5693,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5655,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5664,13 +5724,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5686,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5697,7 +5757,7 @@
   <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5717,10 +5777,10 @@
       <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.98"/>
@@ -5731,7 +5791,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5755,27 +5815,27 @@
         <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5791,28 +5851,28 @@
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J2" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5828,28 +5888,28 @@
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5865,28 +5925,28 @@
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5902,28 +5962,28 @@
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J5" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5939,28 +5999,28 @@
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J6" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5976,28 +6036,28 @@
         <v>11</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J7" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6013,28 +6073,28 @@
         <v>11</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J8" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6050,28 +6110,28 @@
         <v>11</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6087,28 +6147,28 @@
         <v>11</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6124,28 +6184,28 @@
         <v>11</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J11" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6161,28 +6221,28 @@
         <v>11</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J12" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6198,28 +6258,28 @@
         <v>11</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J13" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6235,28 +6295,28 @@
         <v>11</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J14" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6272,28 +6332,28 @@
         <v>11</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J15" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6309,28 +6369,28 @@
         <v>11</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6346,28 +6406,28 @@
         <v>11</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6383,28 +6443,28 @@
         <v>11</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6420,28 +6480,28 @@
         <v>11</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J19" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6457,28 +6517,28 @@
         <v>11</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J20" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6494,28 +6554,28 @@
         <v>11</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J21" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6531,28 +6591,28 @@
         <v>11</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J22" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6568,28 +6628,28 @@
         <v>11</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6605,28 +6665,28 @@
         <v>11</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J24" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6642,28 +6702,28 @@
         <v>11</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J25" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6679,28 +6739,28 @@
         <v>11</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J26" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6716,28 +6776,28 @@
         <v>11</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6753,28 +6813,28 @@
         <v>11</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6790,28 +6850,28 @@
         <v>11</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J29" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6827,21 +6887,21 @@
         <v>11</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="J30" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:G30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6861,7 +6921,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6892,7 +6952,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -6900,13 +6960,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6922,7 +6982,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6931,13 +6991,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6953,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6962,13 +7022,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6984,7 +7044,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6993,13 +7053,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7015,7 +7075,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7024,13 +7084,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7046,7 +7106,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7055,13 +7115,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7077,7 +7137,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7086,13 +7146,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7108,7 +7168,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7117,13 +7177,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7139,7 +7199,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7148,13 +7208,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7170,7 +7230,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7179,13 +7239,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7201,7 +7261,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7210,13 +7270,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7232,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7241,13 +7301,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7263,7 +7323,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7272,13 +7332,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7294,7 +7354,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7303,13 +7363,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7325,7 +7385,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7334,13 +7394,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7356,7 +7416,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7365,13 +7425,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7387,7 +7447,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7396,13 +7456,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7418,7 +7478,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7427,13 +7487,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7449,7 +7509,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7458,13 +7518,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7480,7 +7540,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7489,13 +7549,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7511,7 +7571,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7520,13 +7580,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7542,7 +7602,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7551,13 +7611,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7573,7 +7633,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7582,13 +7642,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7604,7 +7664,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7613,13 +7673,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7635,7 +7695,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7644,13 +7704,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7666,7 +7726,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7675,13 +7735,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7697,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7706,13 +7766,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7728,7 +7788,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7737,13 +7797,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7759,7 +7819,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7768,13 +7828,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7790,7 +7850,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7799,13 +7859,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7821,7 +7881,7 @@
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7832,7 +7892,7 @@
   <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -7852,37 +7912,37 @@
       <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>3824</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>18</v>
@@ -7891,18 +7951,18 @@
         <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3673.05263157895</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>18</v>
@@ -7911,18 +7971,18 @@
         <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5031.57894736842</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>18</v>
@@ -7931,18 +7991,18 @@
         <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5434.1052631579</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>18</v>
@@ -7951,18 +8011,18 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5736</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>18</v>
@@ -7971,18 +8031,18 @@
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6390.1052631579</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>18</v>
@@ -7991,18 +8051,18 @@
         <v>44</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>6490.73684210526</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>18</v>
@@ -8011,18 +8071,18 @@
         <v>44</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>6692</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>18</v>
@@ -8031,18 +8091,18 @@
         <v>44</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>3544.55555555556</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>18</v>
@@ -8051,18 +8111,18 @@
         <v>44</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3404.63888888889</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>18</v>
@@ -8071,18 +8131,18 @@
         <v>44</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4663.88888888889</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>18</v>
@@ -8091,18 +8151,18 @@
         <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5037</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>18</v>
@@ -8111,18 +8171,18 @@
         <v>44</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>5316.83333333333</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>18</v>
@@ -8131,18 +8191,18 @@
         <v>44</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5923.13888888889</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>18</v>
@@ -8151,18 +8211,18 @@
         <v>44</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>6016.41666666667</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>18</v>
@@ -8171,18 +8231,18 @@
         <v>44</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>6202.97222222222</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>18</v>
@@ -8191,18 +8251,18 @@
         <v>44</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>2520.92</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>18</v>
@@ -8211,18 +8271,18 @@
         <v>44</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>2421.41</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>18</v>
@@ -8231,18 +8291,18 @@
         <v>44</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>3317</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>18</v>
@@ -8251,18 +8311,18 @@
         <v>44</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3582.36</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>18</v>
@@ -8271,18 +8331,18 @@
         <v>44</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>3781.38</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>18</v>
@@ -8291,18 +8351,18 @@
         <v>44</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>4212.59</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>18</v>
@@ -8311,18 +8371,18 @@
         <v>44</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>2304</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>18</v>
@@ -8331,18 +8391,18 @@
         <v>44</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2213.05263157895</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>18</v>
@@ -8351,18 +8411,18 @@
         <v>44</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>3031.57894736842</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>18</v>
@@ -8371,18 +8431,18 @@
         <v>44</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>3274.10526315789</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>18</v>
@@ -8391,18 +8451,18 @@
         <v>44</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>1939</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>18</v>
@@ -8411,18 +8471,18 @@
         <v>44</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1862.46052631579</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>18</v>
@@ -8431,18 +8491,18 @@
         <v>44</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>2551.31578947368</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>18</v>
@@ -8451,13 +8511,13 @@
         <v>44</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/addons1.xlsx
+++ b/Inputs/Orange/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1198,12 +1198,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1249,7 +1255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1302,6 +1308,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1319,23 +1345,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1370,7 +1379,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -2024,7 +2033,7 @@
   <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2044,7 +2053,7 @@
       <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2070,10 +2079,10 @@
       <c r="A2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2087,29 +2096,29 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2128,7 +2137,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2154,10 +2163,10 @@
       <c r="A2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2171,29 +2180,29 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2212,7 +2221,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2238,10 +2247,10 @@
       <c r="A2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2255,29 +2264,29 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2296,7 +2305,7 @@
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2479,7 +2488,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2498,7 +2507,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -2957,7 +2966,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2976,7 +2985,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -3210,7 +3219,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3229,7 +3238,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -3388,7 +3397,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3403,11 +3412,11 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3440,7 +3449,8 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="E2" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3458,7 +3468,8 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3487,8 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="b">
+      <c r="E4" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3506,8 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="b">
+      <c r="E5" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3512,7 +3525,8 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="b">
+      <c r="E6" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3530,7 +3544,8 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="b">
+      <c r="E7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -3548,14 +3563,15 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4" t="b">
+      <c r="E8" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3574,7 +3590,7 @@
       <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.12"/>
@@ -5572,7 +5588,7 @@
   <autoFilter ref="A1:H71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5588,11 +5604,11 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
@@ -5814,33 +5830,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="16" t="n">
         <v>1143</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="0" t="s">
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="15" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6031,33 +6047,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="16" t="n">
         <v>640</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="0" t="s">
+      <c r="G15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="15" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6186,33 +6202,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="16" t="n">
         <v>298</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="0" t="s">
+      <c r="G20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="15" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6310,33 +6326,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="15" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="16" t="n">
         <v>155</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
+      <c r="G24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="15" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6562,7 +6578,7 @@
   <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6582,7 +6598,7 @@
       <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -6644,7 +6660,7 @@
       <c r="B2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="4" t="n">
@@ -6679,7 +6695,7 @@
       <c r="M2" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6690,7 +6706,7 @@
       <c r="B3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -6725,7 +6741,7 @@
       <c r="M3" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6736,7 +6752,7 @@
       <c r="B4" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -6771,7 +6787,7 @@
       <c r="M4" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6782,7 +6798,7 @@
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -6817,7 +6833,7 @@
       <c r="M5" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6828,7 +6844,7 @@
       <c r="B6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -6863,7 +6879,7 @@
       <c r="M6" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="18" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6871,7 +6887,7 @@
   <autoFilter ref="A1:E6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6891,7 +6907,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -7891,7 +7907,7 @@
   <autoFilter ref="A1:F32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/addons1.xlsx
+++ b/Inputs/Orange/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="169">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -74,91 +74,58 @@
     <t xml:space="preserve">Regional Plus- Elite</t>
   </si>
   <si>
-    <t xml:space="preserve">-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
     <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-9</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 300,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-8</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-6</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">-5</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 1,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
     <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Regional Plus- Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Private </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
   </si>
   <si>
     <r>
@@ -182,24 +149,6 @@
       </rPr>
       <t xml:space="preserve">Bronze</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Suite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
   </si>
   <si>
     <t xml:space="preserve">Semi Private Room</t>
@@ -713,12 +662,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -764,7 +719,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,7 +760,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,6 +841,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -862,13 +909,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -902,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -919,11 +966,11 @@
       <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>11</v>
+      <c r="F2" s="8" t="n">
+        <v>-10.99</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -935,10 +982,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -947,11 +994,11 @@
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>14</v>
+      <c r="F3" s="9" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -963,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -975,11 +1022,11 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
+      <c r="F4" s="9" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -991,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1003,11 +1050,11 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
+      <c r="F5" s="9" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1019,10 +1066,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1031,11 +1078,11 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
+      <c r="F6" s="9" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1047,10 +1094,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1059,11 +1106,11 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>22</v>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1075,10 +1122,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1087,46 +1134,46 @@
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
+      <c r="F8" s="9" t="n">
+        <v>1.82</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
+    <row r="9" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="14" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
@@ -1141,13 +1188,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>-6.67</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1159,23 +1206,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1187,23 +1234,23 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1215,23 +1262,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1243,23 +1290,23 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>22</v>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -1271,58 +1318,58 @@
         <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>4.86</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
@@ -1336,133 +1383,133 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>34</v>
+      <c r="E17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>-5.31</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="D19" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="F19" s="0" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
@@ -1476,105 +1523,105 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>37</v>
+      <c r="E22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="n">
+        <v>-2</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>35</v>
+      <c r="E24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.8</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
@@ -1588,177 +1635,73 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>24</v>
+      <c r="E26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="8" t="n">
+        <v>-2</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="6" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="D28" s="12" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="0" t="n">
+      <c r="F28" s="10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1784,7 +1727,7 @@
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1800,50 +1743,50 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>183</v>
+        <v>135</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4"/>
     </row>
   </sheetData>
@@ -1868,7 +1811,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1884,50 +1827,50 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>184</v>
+        <v>135</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>167</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4"/>
     </row>
   </sheetData>
@@ -1952,7 +1895,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -1968,50 +1911,50 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>185</v>
+        <v>135</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4"/>
     </row>
   </sheetData>
@@ -2032,33 +1975,33 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,10 +2009,10 @@
         <v>5268</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>18</v>
@@ -2078,10 +2021,10 @@
         <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">(A2+((A2*33.33)/100))</f>
@@ -2096,10 +2039,10 @@
         <v>4885</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>18</v>
@@ -2108,10 +2051,10 @@
         <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H3" s="0" t="n">
         <f aca="false">(A3+((A3*33.33)/100))</f>
@@ -2126,10 +2069,10 @@
         <v>3473</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>18</v>
@@ -2138,10 +2081,10 @@
         <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H4" s="0" t="n">
         <f aca="false">(A4+((A4*33.33)/100))</f>
@@ -2156,10 +2099,10 @@
         <v>3175</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>18</v>
@@ -2168,10 +2111,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H5" s="0" t="n">
         <f aca="false">(A5+((A5*33.33)/100))</f>
@@ -2233,7 +2176,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -2273,11 +2216,11 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
+      <c r="B2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2290,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2301,11 +2244,11 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
+      <c r="B3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2318,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2329,11 +2272,11 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
+      <c r="B4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2346,7 +2289,7 @@
         <v>-5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2357,24 +2300,24 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>41</v>
+      <c r="B5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2385,24 +2328,24 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
+      <c r="B6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2413,24 +2356,24 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>43</v>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2441,24 +2384,24 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>44</v>
+      <c r="B8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2469,24 +2412,24 @@
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>43</v>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-5</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2497,24 +2440,24 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>45</v>
+      <c r="B10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>-7.5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2525,24 +2468,24 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>42</v>
+      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>5.3</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2553,24 +2496,24 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
+      <c r="B12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2581,24 +2524,24 @@
       <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>45</v>
+      <c r="B13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>-2.6</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2609,24 +2552,24 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>46</v>
+      <c r="B14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8.1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2637,24 +2580,24 @@
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>47</v>
+      <c r="B15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>2.7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2665,24 +2608,24 @@
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>48</v>
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2711,7 +2654,7 @@
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2747,10 +2690,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2760,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2772,10 +2715,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2785,7 +2728,7 @@
         <v>-0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2797,10 +2740,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2810,7 +2753,7 @@
         <v>-0.61</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2822,10 +2765,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2835,7 +2778,7 @@
         <v>-0.76</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2847,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2860,7 +2803,7 @@
         <v>-0.91</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2872,10 +2815,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2885,7 +2828,7 @@
         <v>-1.52</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2897,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2910,7 +2853,7 @@
         <v>-2.28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2922,10 +2865,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -2935,7 +2878,7 @@
         <v>-3.04</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3028,7 +2971,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -3064,10 +3007,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3077,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3089,10 +3032,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3102,7 +3045,7 @@
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3114,10 +3057,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3127,7 +3070,7 @@
         <v>2.25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3139,10 +3082,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3152,7 +3095,7 @@
         <v>1.75</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3164,10 +3107,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3177,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3189,10 +3132,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3202,7 +3145,7 @@
         <v>-1.81</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3214,10 +3157,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3227,7 +3170,7 @@
         <v>-3.63</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3291,7 +3234,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
@@ -3299,7 +3242,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="8"/>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
@@ -3307,7 +3250,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
@@ -3315,7 +3258,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="8"/>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
@@ -3323,7 +3266,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
@@ -3331,7 +3274,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
@@ -3360,7 +3303,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -3381,17 +3324,17 @@
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3400,17 +3343,17 @@
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3419,17 +3362,17 @@
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3438,17 +3381,17 @@
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3457,17 +3400,17 @@
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3476,17 +3419,17 @@
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3495,17 +3438,17 @@
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3562,42 +3505,42 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="8"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="8"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
@@ -3625,7 +3568,7 @@
       <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.12"/>
@@ -3650,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
@@ -3664,10 +3607,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>67</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3677,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3691,11 +3634,11 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>67</v>
+      <c r="B3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3705,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3719,11 +3662,11 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>67</v>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3732,11 +3675,11 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>72</v>
+      <c r="F4" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3747,11 +3690,11 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>67</v>
+      <c r="B5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3760,11 +3703,11 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>74</v>
+      <c r="F5" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3775,11 +3718,11 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>67</v>
+      <c r="B6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3788,11 +3731,11 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>76</v>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3803,11 +3746,11 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>67</v>
+      <c r="B7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3816,11 +3759,11 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>78</v>
+      <c r="F7" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3831,11 +3774,11 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>67</v>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3844,11 +3787,11 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>80</v>
+      <c r="F8" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3860,10 +3803,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3873,10 +3816,10 @@
         <v>-2.5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3888,10 +3831,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3901,10 +3844,10 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3916,10 +3859,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3929,10 +3872,10 @@
         <v>-2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3944,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3957,10 +3900,10 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -3972,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -3985,10 +3928,10 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4000,10 +3943,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4013,10 +3956,10 @@
         <v>-1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4028,10 +3971,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4041,10 +3984,10 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4056,10 +3999,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4069,10 +4012,10 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4083,24 +4026,24 @@
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>66</v>
+      <c r="B17" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="23" t="n">
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4111,11 +4054,11 @@
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>69</v>
+      <c r="B18" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4124,11 +4067,11 @@
       <c r="E18" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>70</v>
+      <c r="F18" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4139,11 +4082,11 @@
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>69</v>
+      <c r="B19" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4152,11 +4095,11 @@
       <c r="E19" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>70</v>
+      <c r="F19" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4167,11 +4110,11 @@
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>69</v>
+      <c r="B20" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4180,11 +4123,11 @@
       <c r="E20" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>70</v>
+      <c r="F20" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4195,11 +4138,11 @@
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>69</v>
+      <c r="B21" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4208,11 +4151,11 @@
       <c r="E21" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>70</v>
+      <c r="F21" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4223,11 +4166,11 @@
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>69</v>
+      <c r="B22" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4236,11 +4179,11 @@
       <c r="E22" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>70</v>
+      <c r="F22" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4251,11 +4194,11 @@
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>69</v>
+      <c r="B23" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4264,11 +4207,11 @@
       <c r="E23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>70</v>
+      <c r="F23" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4279,11 +4222,11 @@
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>69</v>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4292,11 +4235,11 @@
       <c r="E24" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F24" s="14" t="s">
-        <v>70</v>
+      <c r="F24" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4307,11 +4250,11 @@
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>69</v>
+      <c r="B25" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4320,11 +4263,11 @@
       <c r="E25" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>70</v>
+      <c r="F25" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4335,11 +4278,11 @@
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>69</v>
+      <c r="B26" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4348,11 +4291,11 @@
       <c r="E26" s="0" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>70</v>
+      <c r="F26" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4363,11 +4306,11 @@
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>71</v>
+      <c r="B27" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4376,11 +4319,11 @@
       <c r="E27" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>72</v>
+      <c r="F27" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4391,11 +4334,11 @@
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>71</v>
+      <c r="B28" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4404,11 +4347,11 @@
       <c r="E28" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>72</v>
+      <c r="F28" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4419,11 +4362,11 @@
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>71</v>
+      <c r="B29" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4432,11 +4375,11 @@
       <c r="E29" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>72</v>
+      <c r="F29" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4447,11 +4390,11 @@
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>71</v>
+      <c r="B30" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4460,11 +4403,11 @@
       <c r="E30" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>72</v>
+      <c r="F30" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4475,11 +4418,11 @@
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>71</v>
+      <c r="B31" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4488,11 +4431,11 @@
       <c r="E31" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>72</v>
+      <c r="F31" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4503,11 +4446,11 @@
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>71</v>
+      <c r="B32" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4516,11 +4459,11 @@
       <c r="E32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>72</v>
+      <c r="F32" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4531,11 +4474,11 @@
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>71</v>
+      <c r="B33" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4544,11 +4487,11 @@
       <c r="E33" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>72</v>
+      <c r="F33" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4559,11 +4502,11 @@
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>71</v>
+      <c r="B34" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4572,11 +4515,11 @@
       <c r="E34" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>72</v>
+      <c r="F34" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4587,11 +4530,11 @@
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>71</v>
+      <c r="B35" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D35" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4600,11 +4543,11 @@
       <c r="E35" s="9" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>72</v>
+      <c r="F35" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4615,11 +4558,11 @@
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>73</v>
+      <c r="B36" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D36" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4628,11 +4571,11 @@
       <c r="E36" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>74</v>
+      <c r="F36" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4643,11 +4586,11 @@
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>73</v>
+      <c r="B37" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D37" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4656,11 +4599,11 @@
       <c r="E37" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>74</v>
+      <c r="F37" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4671,11 +4614,11 @@
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>73</v>
+      <c r="B38" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D38" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4684,11 +4627,11 @@
       <c r="E38" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>74</v>
+      <c r="F38" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4699,11 +4642,11 @@
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>73</v>
+      <c r="B39" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D39" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4712,11 +4655,11 @@
       <c r="E39" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>74</v>
+      <c r="F39" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4727,11 +4670,11 @@
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>73</v>
+      <c r="B40" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D40" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4740,11 +4683,11 @@
       <c r="E40" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>74</v>
+      <c r="F40" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4755,11 +4698,11 @@
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>73</v>
+      <c r="B41" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D41" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4768,11 +4711,11 @@
       <c r="E41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>74</v>
+      <c r="F41" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4783,11 +4726,11 @@
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>73</v>
+      <c r="B42" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D42" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4796,11 +4739,11 @@
       <c r="E42" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>74</v>
+      <c r="F42" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4811,11 +4754,11 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>73</v>
+      <c r="B43" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D43" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4824,11 +4767,11 @@
       <c r="E43" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>74</v>
+      <c r="F43" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4839,11 +4782,11 @@
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>73</v>
+      <c r="B44" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D44" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4852,11 +4795,11 @@
       <c r="E44" s="9" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>74</v>
+      <c r="F44" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4867,11 +4810,11 @@
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>75</v>
+      <c r="B45" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D45" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4880,11 +4823,11 @@
       <c r="E45" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>76</v>
+      <c r="F45" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4895,11 +4838,11 @@
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>75</v>
+      <c r="B46" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D46" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4908,11 +4851,11 @@
       <c r="E46" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>76</v>
+      <c r="F46" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4923,11 +4866,11 @@
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>75</v>
+      <c r="B47" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D47" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4936,11 +4879,11 @@
       <c r="E47" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>76</v>
+      <c r="F47" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4951,11 +4894,11 @@
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>75</v>
+      <c r="B48" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D48" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4964,11 +4907,11 @@
       <c r="E48" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>76</v>
+      <c r="F48" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -4979,11 +4922,11 @@
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>75</v>
+      <c r="B49" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D49" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -4992,11 +4935,11 @@
       <c r="E49" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>76</v>
+      <c r="F49" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5007,11 +4950,11 @@
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>75</v>
+      <c r="B50" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D50" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5020,11 +4963,11 @@
       <c r="E50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>76</v>
+      <c r="F50" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5035,11 +4978,11 @@
       <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>75</v>
+      <c r="B51" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D51" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5048,11 +4991,11 @@
       <c r="E51" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>76</v>
+      <c r="F51" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5063,11 +5006,11 @@
       <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>75</v>
+      <c r="B52" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D52" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5076,11 +5019,11 @@
       <c r="E52" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>76</v>
+      <c r="F52" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5091,11 +5034,11 @@
       <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>75</v>
+      <c r="B53" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="D53" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5104,11 +5047,11 @@
       <c r="E53" s="9" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>76</v>
+      <c r="F53" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5119,11 +5062,11 @@
       <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>77</v>
+      <c r="B54" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D54" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5132,11 +5075,11 @@
       <c r="E54" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>78</v>
+      <c r="F54" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5147,11 +5090,11 @@
       <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>77</v>
+      <c r="B55" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D55" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5160,11 +5103,11 @@
       <c r="E55" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>78</v>
+      <c r="F55" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5175,11 +5118,11 @@
       <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>77</v>
+      <c r="B56" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D56" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5188,11 +5131,11 @@
       <c r="E56" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>78</v>
+      <c r="F56" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5203,11 +5146,11 @@
       <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>77</v>
+      <c r="B57" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D57" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5216,11 +5159,11 @@
       <c r="E57" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>78</v>
+      <c r="F57" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5231,11 +5174,11 @@
       <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>77</v>
+      <c r="B58" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="D58" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5244,11 +5187,11 @@
       <c r="E58" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>78</v>
+      <c r="F58" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5259,11 +5202,11 @@
       <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>77</v>
+      <c r="B59" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D59" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5272,11 +5215,11 @@
       <c r="E59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>78</v>
+      <c r="F59" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5287,11 +5230,11 @@
       <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>77</v>
+      <c r="B60" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D60" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5300,11 +5243,11 @@
       <c r="E60" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F60" s="14" t="s">
-        <v>78</v>
+      <c r="F60" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5315,11 +5258,11 @@
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>77</v>
+      <c r="B61" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D61" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5328,11 +5271,11 @@
       <c r="E61" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>78</v>
+      <c r="F61" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5343,11 +5286,11 @@
       <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>77</v>
+      <c r="B62" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D62" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5356,11 +5299,11 @@
       <c r="E62" s="9" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>78</v>
+      <c r="F62" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5371,11 +5314,11 @@
       <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>79</v>
+      <c r="B63" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D63" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5384,11 +5327,11 @@
       <c r="E63" s="0" t="n">
         <v>-2.5</v>
       </c>
-      <c r="F63" s="14" t="s">
-        <v>80</v>
+      <c r="F63" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5399,11 +5342,11 @@
       <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>79</v>
+      <c r="B64" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D64" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5412,11 +5355,11 @@
       <c r="E64" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>80</v>
+      <c r="F64" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5427,11 +5370,11 @@
       <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>79</v>
+      <c r="B65" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D65" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5440,11 +5383,11 @@
       <c r="E65" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F65" s="14" t="s">
-        <v>80</v>
+      <c r="F65" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5455,11 +5398,11 @@
       <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>79</v>
+      <c r="B66" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D66" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5468,11 +5411,11 @@
       <c r="E66" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F66" s="14" t="s">
-        <v>80</v>
+      <c r="F66" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5483,11 +5426,11 @@
       <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>79</v>
+      <c r="B67" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D67" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5496,11 +5439,11 @@
       <c r="E67" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>80</v>
+      <c r="F67" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5511,11 +5454,11 @@
       <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>79</v>
+      <c r="B68" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5524,11 +5467,11 @@
       <c r="E68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>80</v>
+      <c r="F68" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5539,11 +5482,11 @@
       <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>79</v>
+      <c r="B69" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D69" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5552,11 +5495,11 @@
       <c r="E69" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>80</v>
+      <c r="F69" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5567,11 +5510,11 @@
       <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>79</v>
+      <c r="B70" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D70" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5580,11 +5523,11 @@
       <c r="E70" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>80</v>
+      <c r="F70" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5595,11 +5538,11 @@
       <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>79</v>
+      <c r="B71" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D71" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5608,11 +5551,11 @@
       <c r="E71" s="9" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F71" s="14" t="s">
-        <v>80</v>
+      <c r="F71" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5624,10 +5567,10 @@
         <v>8</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D72" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5637,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5651,11 +5594,11 @@
       <c r="A73" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>69</v>
+      <c r="B73" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D73" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5665,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5679,11 +5622,11 @@
       <c r="A74" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>71</v>
+      <c r="B74" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D74" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5692,11 +5635,11 @@
       <c r="E74" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>72</v>
+      <c r="F74" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5707,11 +5650,11 @@
       <c r="A75" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>73</v>
+      <c r="B75" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D75" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5720,11 +5663,11 @@
       <c r="E75" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>74</v>
+      <c r="F75" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5735,11 +5678,11 @@
       <c r="A76" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>75</v>
+      <c r="B76" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D76" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5748,11 +5691,11 @@
       <c r="E76" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="14" t="s">
-        <v>76</v>
+      <c r="F76" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5763,11 +5706,11 @@
       <c r="A77" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>77</v>
+      <c r="B77" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D77" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5776,11 +5719,11 @@
       <c r="E77" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>78</v>
+      <c r="F77" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5791,11 +5734,11 @@
       <c r="A78" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>79</v>
+      <c r="B78" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D78" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5804,11 +5747,11 @@
       <c r="E78" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>80</v>
+      <c r="F78" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="6" t="n">
         <f aca="false">FALSE()</f>
@@ -5837,7 +5780,7 @@
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
@@ -5869,7 +5812,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -5877,27 +5820,27 @@
     </row>
     <row r="2" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>155</v>
+        <v>137</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5906,13 +5849,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5925,10 +5868,10 @@
         <v>330</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5937,13 +5880,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5956,10 +5899,10 @@
         <v>467</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5968,13 +5911,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5987,10 +5930,10 @@
         <v>513</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -5999,13 +5942,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6018,10 +5961,10 @@
         <v>651</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6030,13 +5973,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6049,10 +5992,10 @@
         <v>697</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6061,13 +6004,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6080,10 +6023,10 @@
         <v>749</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6092,13 +6035,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6111,10 +6054,10 @@
         <v>887</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6123,13 +6066,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6142,10 +6085,10 @@
         <v>979</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6154,13 +6097,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6173,10 +6116,10 @@
         <v>1400</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6185,29 +6128,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>218</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6216,29 +6159,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>309</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6247,29 +6190,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>340</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6278,29 +6221,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>431</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I15" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6309,29 +6252,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>462</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I16" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6340,29 +6283,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>496</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I17" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6371,29 +6314,29 @@
     </row>
     <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>588</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I18" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6402,29 +6345,29 @@
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>649</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I19" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6433,29 +6376,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>117</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I20" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6464,29 +6407,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>166</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I21" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6495,29 +6438,29 @@
     </row>
     <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>182</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I22" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6526,29 +6469,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>231</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I23" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6557,29 +6500,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>247</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I24" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6588,29 +6531,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>266</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I25" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6619,29 +6562,29 @@
     </row>
     <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>315</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I26" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6650,29 +6593,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>85</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I27" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6681,29 +6624,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>120</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I28" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6712,29 +6655,29 @@
     </row>
     <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>132</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I29" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6743,29 +6686,29 @@
     </row>
     <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>167</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I30" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6774,29 +6717,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>179</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I31" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6805,29 +6748,29 @@
     </row>
     <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>193</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I32" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6836,29 +6779,29 @@
     </row>
     <row r="33" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D33" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I33" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6867,29 +6810,29 @@
     </row>
     <row r="34" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D34" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>120</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I34" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6898,29 +6841,29 @@
     </row>
     <row r="35" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D35" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>132</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I35" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6929,29 +6872,29 @@
     </row>
     <row r="36" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D36" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>167</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I36" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -6980,7 +6923,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -7011,39 +6954,39 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7053,17 +6996,17 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>18</v>
@@ -7072,44 +7015,44 @@
         <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>18</v>
@@ -7118,44 +7061,44 @@
         <v>44</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>174</v>
+        <v>158</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>18</v>
@@ -7164,44 +7107,44 @@
         <v>44</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>174</v>
+        <v>159</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="H5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>18</v>
@@ -7210,64 +7153,64 @@
         <v>44</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>174</v>
+        <v>160</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="H6" s="6"/>
-      <c r="N6" s="13"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
       <c r="H7" s="6"/>
-      <c r="N7" s="13"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
       <c r="H8" s="6"/>
-      <c r="N8" s="13"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="H9" s="6"/>
-      <c r="N9" s="13"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
       <c r="H10" s="6"/>
-      <c r="N10" s="13"/>
+      <c r="N10" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7291,7 +7234,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -7322,7 +7265,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -7330,27 +7273,27 @@
     </row>
     <row r="2" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>155</v>
+        <v>136</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="24" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7359,13 +7302,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7378,10 +7321,10 @@
         <v>127</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7390,13 +7333,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7409,10 +7352,10 @@
         <v>190</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7421,13 +7364,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7440,10 +7383,10 @@
         <v>255</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7452,13 +7395,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7471,10 +7414,10 @@
         <v>296</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7483,13 +7426,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7502,10 +7445,10 @@
         <v>382</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7514,13 +7457,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7533,10 +7476,10 @@
         <v>424</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7545,13 +7488,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7564,10 +7507,10 @@
         <v>465</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7576,29 +7519,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>106</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7607,29 +7550,29 @@
     </row>
     <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>158</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7638,29 +7581,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>212</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7669,29 +7612,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>247</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7700,29 +7643,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>318</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I14" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7731,29 +7674,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>353</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I15" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7762,29 +7705,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>388</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I16" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7793,29 +7736,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>57</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I17" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7824,29 +7767,29 @@
     </row>
     <row r="18" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>85</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I18" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7855,29 +7798,29 @@
     </row>
     <row r="19" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>114</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I19" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7886,29 +7829,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>133</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I20" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7917,29 +7860,29 @@
     </row>
     <row r="21" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>172</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I21" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7948,29 +7891,29 @@
     </row>
     <row r="22" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D22" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>190</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I22" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -7979,29 +7922,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D23" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>209</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I23" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8010,29 +7953,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I24" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8041,29 +7984,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D25" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>46</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I25" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8072,29 +8015,29 @@
     </row>
     <row r="26" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D26" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I26" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8103,29 +8046,29 @@
     </row>
     <row r="27" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D27" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>72</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I27" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8134,29 +8077,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D28" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>93</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I28" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8165,29 +8108,29 @@
     </row>
     <row r="29" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D29" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I29" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8196,29 +8139,29 @@
     </row>
     <row r="30" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D30" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I30" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8227,29 +8170,29 @@
     </row>
     <row r="31" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>62</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I31" s="6" t="n">
         <f aca="false">TRUE()</f>
@@ -8258,29 +8201,29 @@
     </row>
     <row r="32" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D32" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>72</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="I32" s="6" t="n">
         <f aca="false">TRUE()</f>
